--- a/test/resources/testdata.xlsx
+++ b/test/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amit.bhoraniya/Documents/projects/amit/open-source/qaf/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chirag/git/qaf-parent/qaf/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAD6ED7-7A32-9D47-8BF3-5C7172706E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF16C7E1-7F39-6F4E-8675-7690F72D4119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" activeTab="2" xr2:uid="{753FB698-6F36-9142-A874-C817A9FD9A73}"/>
+    <workbookView xWindow="4960" yWindow="2520" windowWidth="23840" windowHeight="13840" activeTab="2" xr2:uid="{753FB698-6F36-9142-A874-C817A9FD9A73}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstSheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -112,13 +112,94 @@
   </si>
   <si>
     <t>L8</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test10</t>
+  </si>
+  <si>
+    <t>Test11</t>
+  </si>
+  <si>
+    <t>Test12</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>Test13</t>
+  </si>
+  <si>
+    <t>Test14</t>
+  </si>
+  <si>
+    <t>Test15</t>
+  </si>
+  <si>
+    <t>Test16</t>
+  </si>
+  <si>
+    <t>Data5</t>
+  </si>
+  <si>
+    <t>Test17</t>
+  </si>
+  <si>
+    <t>Test18</t>
+  </si>
+  <si>
+    <t>Test19</t>
+  </si>
+  <si>
+    <t>Test20</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +210,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -749,17 +836,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A3773B-8BBD-7E4F-85AB-DE7C8262B777}">
-  <dimension ref="C7:Q23"/>
+  <dimension ref="B7:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" customWidth="1"/>
     <col min="15" max="15" width="13.83203125" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
@@ -887,7 +976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="I19" s="2" t="s">
         <v>16</v>
       </c>
@@ -914,7 +1003,7 @@
       </c>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="I20" s="2"/>
       <c r="J20" s="2">
         <v>5</v>
@@ -940,7 +1029,7 @@
       </c>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="I21" s="2"/>
       <c r="J21" s="2">
         <v>6</v>
@@ -966,7 +1055,7 @@
       </c>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="I22" s="2"/>
       <c r="J22" s="2">
         <v>7</v>
@@ -992,7 +1081,7 @@
       </c>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="I23" s="2"/>
       <c r="J23" s="2">
         <v>8</v>
@@ -1020,7 +1109,397 @@
         <v>16</v>
       </c>
     </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>44264</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f>LOWER(CONCATENATE(E28,".",F28,"@test.com"))</f>
+        <v>test9.l9@test.com</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44265</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" ref="J29:J31" si="2">LOWER(CONCATENATE(E29,".",F29,"@test.com"))</f>
+        <v>test10.l10@test.com</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>44266</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>test11.l11@test.com</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>44267</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>test12.l12@test.com</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44268</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f>LOWER(CONCATENATE(D36,".",E36,"@test.com"))</f>
+        <v>test13.l13@test.com</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <v>17</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>44272</v>
+      </c>
+      <c r="R36" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="S36" s="2" t="str">
+        <f>LOWER(CONCATENATE(N36,".",O36,"@test.com"))</f>
+        <v>test17.l17@test.com</v>
+      </c>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44269</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f t="shared" ref="I37:I39" si="3">LOWER(CONCATENATE(D37,".",E37,"@test.com"))</f>
+        <v>test14.l14@test.com</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2">
+        <v>18</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>44273</v>
+      </c>
+      <c r="R37" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="S37" s="2" t="str">
+        <f t="shared" ref="S37:S39" si="4">LOWER(CONCATENATE(N37,".",O37,"@test.com"))</f>
+        <v>test18.l18@test.com</v>
+      </c>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44270</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>test15.l15@test.com</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2">
+        <v>19</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>44274</v>
+      </c>
+      <c r="R38" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="S38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>test19.l19@test.com</v>
+      </c>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44271</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>test16.l16@test.com</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2">
+        <v>20</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>44275</v>
+      </c>
+      <c r="R39" s="2">
+        <v>3</v>
+      </c>
+      <c r="S39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>test20.l20@test.com</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
